--- a/src/test/resources/generateCode/generateCode.xlsx
+++ b/src/test/resources/generateCode/generateCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\generateCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E21995-67A0-4AFC-A8B8-99226F587254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE3975-2D90-4FE6-84DE-373E8EA9AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -58,36 +58,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0451A5"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -99,10 +105,85 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -116,20 +197,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,35 +535,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/generateCode/generateCode.xlsx
+++ b/src/test/resources/generateCode/generateCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\generateCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\generateCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE3975-2D90-4FE6-84DE-373E8EA9AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D2D4C5-A073-4DBB-BE6D-2FD71FBDAF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"path":"gen","tables":"user1,user2","package":"com.hugang","basePackage":"","author":"hugang"}</t>
+    <r>
+      <t>{"path":"gen","template":"template/test","tables":"sys_resource_bundle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sys_language","package":"com.hugang","basePackage":"","author":"hugang","module":"demo"}</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -42,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -78,6 +100,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,12 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">

--- a/src/test/resources/generateCode/generateCode.xlsx
+++ b/src/test/resources/generateCode/generateCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\generateCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D2D4C5-A073-4DBB-BE6D-2FD71FBDAF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB6A3F-C371-472E-BE90-2EEFAEC9A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,29 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>{"path":"gen","template":"template/test","tables":"sys_resource_bundle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>sys_language","package":"com.hugang","basePackage":"","author":"hugang","module":"demo"}</t>
-    </r>
+    <t>{"path":"gen","template":"template/test","tables":"gen_datasource","package":"com.hugang","basePackage":"","author":"hugang","module":"demo"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -64,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -99,13 +77,6 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -565,7 +536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/src/test/resources/generateCode/generateCode.xlsx
+++ b/src/test/resources/generateCode/generateCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\generateCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB6A3F-C371-472E-BE90-2EEFAEC9A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE6B2F-5511-4242-93C5-CEB787E6CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"path":"gen","template":"template/test","tables":"gen_datasource","package":"com.hugang","basePackage":"","author":"hugang","module":"demo"}</t>
+    <t>{"path":"gen","template":"doc/template_example/test","tables":"sys_user","package":"com.hugang","basePackage":"","author":"hugang","module":"demo"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,13 +536,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
